--- a/biology/Médecine/Karl_Wilhelm_Ludwig_Bruch/Karl_Wilhelm_Ludwig_Bruch.xlsx
+++ b/biology/Médecine/Karl_Wilhelm_Ludwig_Bruch/Karl_Wilhelm_Ludwig_Bruch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Wilhelm Ludwig Bruch est un médecin hessois, né le 1er mai 1819 à Mayence et mort à Heppenheim le 4 janvier 1884.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine à l'Université de Giessen, puis à Berlin où il obtient, en 1842, son titre de docteur.
 En 1844, il est l'assistant de Freidrich Tiedemann  (1781-1861) à l'Université d'Heidelberg.
-En 1850, il est professeur de médecine à Université de Bâle, mais cinq plus tard il revient à Giessen pour poursuivre sa carrière universitaire. De santé fragile, il est forcé de se retirer à l'âge de 41 ans. En 1884, il meurt dans un asile pour malades mentaux à Heppenheim, d'une maladie neurologique non identifiée[1].
+En 1850, il est professeur de médecine à Université de Bâle, mais cinq plus tard il revient à Giessen pour poursuivre sa carrière universitaire. De santé fragile, il est forcé de se retirer à l'âge de 41 ans. En 1884, il meurt dans un asile pour malades mentaux à Heppenheim, d'une maladie neurologique non identifiée.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il a laissé son nom à des éléments de la structure de l'œil[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il a laissé son nom à des éléments de la structure de l'œil :
 glandes ou ganglions de Bruch : follicules lymphatiques localisés sur la conjonctive de la paupière inférieure.
 membrane de Bruch ou lame vitrée de Bruch ou lame basale de Bruch (Lamina basalis choroideae) : dans la structure microscopique de la choroïde, membrane très mince située entre la choriocapillaire et l'épithélium pigmentaire.
 membrane dilatatrice de Bruch ou muscle dilatateur de la pupille ou de l'iris (Musculus dilator pupillae).</t>
